--- a/downloaded_files/MEPS422_Lecture-35725.xlsx
+++ b/downloaded_files/MEPS422_Lecture-35725.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق محمد فوزى عريبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Farouk Mohamed Fawzy Oraiba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -689,7 +698,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.540625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.440625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.370625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45937.4320810185</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
